--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.0264945</v>
+        <v>0.6880465</v>
       </c>
       <c r="H2">
-        <v>2.052989</v>
+        <v>1.376093</v>
       </c>
       <c r="I2">
-        <v>0.3916486627501591</v>
+        <v>0.2200837242558629</v>
       </c>
       <c r="J2">
-        <v>0.3176264927596862</v>
+        <v>0.1636618821794959</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>2.072539614247</v>
+        <v>7.4559422762745</v>
       </c>
       <c r="R2">
-        <v>8.290158456988001</v>
+        <v>29.823769105098</v>
       </c>
       <c r="S2">
-        <v>0.001556941814710181</v>
+        <v>0.004064643237866115</v>
       </c>
       <c r="T2">
-        <v>0.0008598331911614905</v>
+        <v>0.002065898527091878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.0264945</v>
+        <v>0.6880465</v>
       </c>
       <c r="H3">
-        <v>2.052989</v>
+        <v>1.376093</v>
       </c>
       <c r="I3">
-        <v>0.3916486627501591</v>
+        <v>0.2200837242558629</v>
       </c>
       <c r="J3">
-        <v>0.3176264927596862</v>
+        <v>0.1636618821794959</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>143.3959609868417</v>
+        <v>96.11652967564164</v>
       </c>
       <c r="R3">
-        <v>860.3757659210499</v>
+        <v>576.6991780538499</v>
       </c>
       <c r="S3">
-        <v>0.1077225092279255</v>
+        <v>0.05239839418237351</v>
       </c>
       <c r="T3">
-        <v>0.08923588665381027</v>
+        <v>0.03994806888150464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.0264945</v>
+        <v>0.6880465</v>
       </c>
       <c r="H4">
-        <v>2.052989</v>
+        <v>1.376093</v>
       </c>
       <c r="I4">
-        <v>0.3916486627501591</v>
+        <v>0.2200837242558629</v>
       </c>
       <c r="J4">
-        <v>0.3176264927596862</v>
+        <v>0.1636618821794959</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>191.2922323371382</v>
+        <v>103.29014606092</v>
       </c>
       <c r="R4">
-        <v>1147.753394022829</v>
+        <v>619.74087636552</v>
       </c>
       <c r="S4">
-        <v>0.1437033450688247</v>
+        <v>0.05630912608600577</v>
       </c>
       <c r="T4">
-        <v>0.119041930087261</v>
+        <v>0.04292957604219456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.0264945</v>
+        <v>0.6880465</v>
       </c>
       <c r="H5">
-        <v>2.052989</v>
+        <v>1.376093</v>
       </c>
       <c r="I5">
-        <v>0.3916486627501591</v>
+        <v>0.2200837242558629</v>
       </c>
       <c r="J5">
-        <v>0.3176264927596862</v>
+        <v>0.1636618821794959</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>30.75718780096525</v>
+        <v>22.3403352428695</v>
       </c>
       <c r="R5">
-        <v>123.028751203861</v>
+        <v>89.361340971478</v>
       </c>
       <c r="S5">
-        <v>0.02310554233126933</v>
+        <v>0.01217894254164803</v>
       </c>
       <c r="T5">
-        <v>0.01276021493449989</v>
+        <v>0.006190078190364425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.0264945</v>
+        <v>0.6880465</v>
       </c>
       <c r="H6">
-        <v>2.052989</v>
+        <v>1.376093</v>
       </c>
       <c r="I6">
-        <v>0.3916486627501591</v>
+        <v>0.2200837242558629</v>
       </c>
       <c r="J6">
-        <v>0.3176264927596862</v>
+        <v>0.1636618821794959</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>6.419404394232334</v>
+        <v>35.84050754550883</v>
       </c>
       <c r="R6">
-        <v>38.516426365394</v>
+        <v>215.043045273053</v>
       </c>
       <c r="S6">
-        <v>0.00482241162398523</v>
+        <v>0.01953862721015231</v>
       </c>
       <c r="T6">
-        <v>0.003994821325276054</v>
+        <v>0.01489607530575376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0264945</v>
+        <v>0.6880465</v>
       </c>
       <c r="H7">
-        <v>2.052989</v>
+        <v>1.376093</v>
       </c>
       <c r="I7">
-        <v>0.3916486627501591</v>
+        <v>0.2200837242558629</v>
       </c>
       <c r="J7">
-        <v>0.3176264927596862</v>
+        <v>0.1636618821794959</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>147.4099472870703</v>
+        <v>138.6651669849467</v>
       </c>
       <c r="R7">
-        <v>884.4596837224221</v>
+        <v>831.99100190968</v>
       </c>
       <c r="S7">
-        <v>0.1107379126834442</v>
+        <v>0.07559399099781716</v>
       </c>
       <c r="T7">
-        <v>0.09173380656767748</v>
+        <v>0.05763218523258666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.597818</v>
       </c>
       <c r="I8">
-        <v>0.07603048377040325</v>
+        <v>0.06374085272201391</v>
       </c>
       <c r="J8">
-        <v>0.09249091673097617</v>
+        <v>0.07109985958854663</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>0.4023406805426666</v>
+        <v>2.159396930158</v>
       </c>
       <c r="R8">
-        <v>2.414044083256</v>
+        <v>12.956381580948</v>
       </c>
       <c r="S8">
-        <v>0.0003022480366549815</v>
+        <v>0.001177205751440077</v>
       </c>
       <c r="T8">
-        <v>0.0002503782332364079</v>
+        <v>0.0008974911765912713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.597818</v>
       </c>
       <c r="I9">
-        <v>0.07603048377040325</v>
+        <v>0.06374085272201391</v>
       </c>
       <c r="J9">
-        <v>0.09249091673097617</v>
+        <v>0.07109985958854663</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>27.83735863667777</v>
@@ -1013,10 +1013,10 @@
         <v>250.5362277300999</v>
       </c>
       <c r="S9">
-        <v>0.0209120961426226</v>
+        <v>0.01517567161198076</v>
       </c>
       <c r="T9">
-        <v>0.02598495135025445</v>
+        <v>0.01735469524414654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.597818</v>
       </c>
       <c r="I10">
-        <v>0.07603048377040325</v>
+        <v>0.06374085272201391</v>
       </c>
       <c r="J10">
-        <v>0.09249091673097617</v>
+        <v>0.07109985958854663</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>37.13542863643311</v>
+        <v>29.91498807994666</v>
       </c>
       <c r="R10">
-        <v>334.218857727898</v>
+        <v>269.23489271952</v>
       </c>
       <c r="S10">
-        <v>0.02789703089571827</v>
+        <v>0.01630830141978476</v>
       </c>
       <c r="T10">
-        <v>0.03466429121680933</v>
+        <v>0.01864995555561482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.597818</v>
       </c>
       <c r="I11">
-        <v>0.07603048377040325</v>
+        <v>0.06374085272201391</v>
       </c>
       <c r="J11">
-        <v>0.09249091673097617</v>
+        <v>0.07109985958854663</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>5.970871575313666</v>
+        <v>6.470228651804666</v>
       </c>
       <c r="R11">
-        <v>35.825229451882</v>
+        <v>38.821371910828</v>
       </c>
       <c r="S11">
-        <v>0.004485462937338281</v>
+        <v>0.003527276655653816</v>
       </c>
       <c r="T11">
-        <v>0.003715697537450447</v>
+        <v>0.002689164296023074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.597818</v>
       </c>
       <c r="I12">
-        <v>0.07603048377040325</v>
+        <v>0.06374085272201391</v>
       </c>
       <c r="J12">
-        <v>0.09249091673097617</v>
+        <v>0.07109985958854663</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>1.246194531047556</v>
+        <v>10.38016109853089</v>
       </c>
       <c r="R12">
-        <v>11.215750779428</v>
+        <v>93.42144988677798</v>
       </c>
       <c r="S12">
-        <v>0.0009361714301205388</v>
+        <v>0.005658795368006296</v>
       </c>
       <c r="T12">
-        <v>0.001163267847530542</v>
+        <v>0.006471322757353681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.597818</v>
       </c>
       <c r="I13">
-        <v>0.07603048377040325</v>
+        <v>0.06374085272201391</v>
       </c>
       <c r="J13">
-        <v>0.09249091673097617</v>
+        <v>0.07109985958854663</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>28.61659101835155</v>
+        <v>40.16033451063111</v>
       </c>
       <c r="R13">
-        <v>257.549319165164</v>
+        <v>361.4430105956799</v>
       </c>
       <c r="S13">
-        <v>0.02149747432794858</v>
+        <v>0.0218936019151482</v>
       </c>
       <c r="T13">
-        <v>0.02671233054569499</v>
+        <v>0.02503723055881724</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2207873333333333</v>
+        <v>0.1798523333333333</v>
       </c>
       <c r="H14">
-        <v>0.662362</v>
+        <v>0.539557</v>
       </c>
       <c r="I14">
-        <v>0.08423918866800906</v>
+        <v>0.05752891895548756</v>
       </c>
       <c r="J14">
-        <v>0.1024767882328114</v>
+        <v>0.06417074584575481</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>0.4457797822173333</v>
+        <v>1.948950565967</v>
       </c>
       <c r="R14">
-        <v>2.674678693304</v>
+        <v>11.693703395802</v>
       </c>
       <c r="S14">
-        <v>0.0003348805389848865</v>
+        <v>0.001062479891254117</v>
       </c>
       <c r="T14">
-        <v>0.0002774105619485087</v>
+        <v>0.000810025202934767</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2207873333333333</v>
+        <v>0.1798523333333333</v>
       </c>
       <c r="H15">
-        <v>0.662362</v>
+        <v>0.539557</v>
       </c>
       <c r="I15">
-        <v>0.08423918866800906</v>
+        <v>0.05752891895548756</v>
       </c>
       <c r="J15">
-        <v>0.1024767882328114</v>
+        <v>0.06417074584575481</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>30.84284605232222</v>
+        <v>25.12443873207221</v>
       </c>
       <c r="R15">
-        <v>277.5856144708999</v>
+        <v>226.1199485886499</v>
       </c>
       <c r="S15">
-        <v>0.02316989087852789</v>
+        <v>0.01369671011569659</v>
       </c>
       <c r="T15">
-        <v>0.02879044181717051</v>
+        <v>0.01566337464219206</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2207873333333333</v>
+        <v>0.1798523333333333</v>
       </c>
       <c r="H16">
-        <v>0.662362</v>
+        <v>0.539557</v>
       </c>
       <c r="I16">
-        <v>0.08423918866800906</v>
+        <v>0.05752891895548756</v>
       </c>
       <c r="J16">
-        <v>0.1024767882328114</v>
+        <v>0.06417074584575481</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>41.14479119478689</v>
+        <v>26.99959055005333</v>
       </c>
       <c r="R16">
-        <v>370.303120753082</v>
+        <v>242.99631495048</v>
       </c>
       <c r="S16">
-        <v>0.03090896088466681</v>
+        <v>0.01471895826013068</v>
       </c>
       <c r="T16">
-        <v>0.03840685502769783</v>
+        <v>0.01683240395859754</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2207873333333333</v>
+        <v>0.1798523333333333</v>
       </c>
       <c r="H17">
-        <v>0.662362</v>
+        <v>0.539557</v>
       </c>
       <c r="I17">
-        <v>0.08423918866800906</v>
+        <v>0.05752891895548756</v>
       </c>
       <c r="J17">
-        <v>0.1024767882328114</v>
+        <v>0.06417074584575481</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>6.615522514156333</v>
+        <v>5.839665518070333</v>
       </c>
       <c r="R17">
-        <v>39.693135084938</v>
+        <v>35.03799310842199</v>
       </c>
       <c r="S17">
-        <v>0.004969740292365332</v>
+        <v>0.003183522092835287</v>
       </c>
       <c r="T17">
-        <v>0.004116866424732532</v>
+        <v>0.002427088880009169</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2207873333333333</v>
+        <v>0.1798523333333333</v>
       </c>
       <c r="H18">
-        <v>0.662362</v>
+        <v>0.539557</v>
       </c>
       <c r="I18">
-        <v>0.08423918866800906</v>
+        <v>0.05752891895548756</v>
       </c>
       <c r="J18">
-        <v>0.1024767882328114</v>
+        <v>0.06417074584575481</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>1.380741131872444</v>
+        <v>9.368551267844108</v>
       </c>
       <c r="R18">
-        <v>12.426670186852</v>
+        <v>84.31696141059699</v>
       </c>
       <c r="S18">
-        <v>0.001037246086262877</v>
+        <v>0.00510731134287588</v>
       </c>
       <c r="T18">
-        <v>0.001288861188565792</v>
+        <v>0.005840652996379299</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2207873333333333</v>
+        <v>0.1798523333333333</v>
       </c>
       <c r="H19">
-        <v>0.662362</v>
+        <v>0.539557</v>
       </c>
       <c r="I19">
-        <v>0.08423918866800906</v>
+        <v>0.05752891895548756</v>
       </c>
       <c r="J19">
-        <v>0.1024767882328114</v>
+        <v>0.06417074584575481</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>31.70620901360844</v>
+        <v>36.24646565936888</v>
       </c>
       <c r="R19">
-        <v>285.355881122476</v>
+        <v>326.21819093432</v>
       </c>
       <c r="S19">
-        <v>0.02381846998720125</v>
+        <v>0.019759937252695</v>
       </c>
       <c r="T19">
-        <v>0.02959635321269621</v>
+        <v>0.02259720016564197</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.372846</v>
+        <v>0.2826905</v>
       </c>
       <c r="H20">
-        <v>0.745692</v>
+        <v>0.565381</v>
       </c>
       <c r="I20">
-        <v>0.1422556451220594</v>
+        <v>0.0904235077887207</v>
       </c>
       <c r="J20">
-        <v>0.1153691201652595</v>
+        <v>0.06724205312324501</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>0.752793224916</v>
+        <v>3.0633453553665</v>
       </c>
       <c r="R20">
-        <v>3.011172899664</v>
+        <v>12.253381421466</v>
       </c>
       <c r="S20">
-        <v>0.0005655164522044999</v>
+        <v>0.00166999763712771</v>
       </c>
       <c r="T20">
-        <v>0.0003123108462751598</v>
+        <v>0.0008487942131423771</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.372846</v>
+        <v>0.2826905</v>
       </c>
       <c r="H21">
-        <v>0.745692</v>
+        <v>0.565381</v>
       </c>
       <c r="I21">
-        <v>0.1422556451220594</v>
+        <v>0.0904235077887207</v>
       </c>
       <c r="J21">
-        <v>0.1153691201652595</v>
+        <v>0.06724205312324501</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>52.08465361489999</v>
+        <v>39.49039757090833</v>
       </c>
       <c r="R21">
-        <v>312.5079216894</v>
+        <v>236.94238542545</v>
       </c>
       <c r="S21">
-        <v>0.03912724975691063</v>
+        <v>0.02152838253026832</v>
       </c>
       <c r="T21">
-        <v>0.03241249066149555</v>
+        <v>0.0164130470340987</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.372846</v>
+        <v>0.2826905</v>
       </c>
       <c r="H22">
-        <v>0.745692</v>
+        <v>0.565381</v>
       </c>
       <c r="I22">
-        <v>0.1422556451220594</v>
+        <v>0.0904235077887207</v>
       </c>
       <c r="J22">
-        <v>0.1153691201652595</v>
+        <v>0.06724205312324501</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>69.48166177020201</v>
+        <v>42.43774662764</v>
       </c>
       <c r="R22">
-        <v>416.8899706212121</v>
+        <v>254.62647976584</v>
       </c>
       <c r="S22">
-        <v>0.05219630246000442</v>
+        <v>0.02313514422036304</v>
       </c>
       <c r="T22">
-        <v>0.04323871921896795</v>
+        <v>0.01763802783119455</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.372846</v>
+        <v>0.2826905</v>
       </c>
       <c r="H23">
-        <v>0.745692</v>
+        <v>0.565381</v>
       </c>
       <c r="I23">
-        <v>0.1422556451220594</v>
+        <v>0.0904235077887207</v>
       </c>
       <c r="J23">
-        <v>0.1153691201652595</v>
+        <v>0.06724205312324501</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>11.171705686527</v>
+        <v>9.178740884481501</v>
       </c>
       <c r="R23">
-        <v>44.686822746108</v>
+        <v>36.714963537926</v>
       </c>
       <c r="S23">
-        <v>0.008392455133509672</v>
+        <v>0.005003835288123335</v>
       </c>
       <c r="T23">
-        <v>0.004634798430452912</v>
+        <v>0.002543252961352488</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.372846</v>
+        <v>0.2826905</v>
       </c>
       <c r="H24">
-        <v>0.745692</v>
+        <v>0.565381</v>
       </c>
       <c r="I24">
-        <v>0.1422556451220594</v>
+        <v>0.0904235077887207</v>
       </c>
       <c r="J24">
-        <v>0.1153691201652595</v>
+        <v>0.06724205312324501</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>2.331672747172</v>
+        <v>14.72541608495017</v>
       </c>
       <c r="R24">
-        <v>13.990036483032</v>
+        <v>88.352496509701</v>
       </c>
       <c r="S24">
-        <v>0.001751608882810767</v>
+        <v>0.008027632282631423</v>
       </c>
       <c r="T24">
-        <v>0.001451009383726728</v>
+        <v>0.006120195330142923</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.372846</v>
+        <v>0.2826905</v>
       </c>
       <c r="H25">
-        <v>0.745692</v>
+        <v>0.565381</v>
       </c>
       <c r="I25">
-        <v>0.1422556451220594</v>
+        <v>0.0904235077887207</v>
       </c>
       <c r="J25">
-        <v>0.1153691201652595</v>
+        <v>0.06724205312324501</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>53.542624150636</v>
+        <v>56.97191307209333</v>
       </c>
       <c r="R25">
-        <v>321.255744903816</v>
+        <v>341.83147843256</v>
       </c>
       <c r="S25">
-        <v>0.04022251243661941</v>
+        <v>0.03105851583020688</v>
       </c>
       <c r="T25">
-        <v>0.03331979162434117</v>
+        <v>0.02367873575331397</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4946656666666667</v>
+        <v>1.553183333333333</v>
       </c>
       <c r="H26">
-        <v>1.483997</v>
+        <v>4.65955</v>
       </c>
       <c r="I26">
-        <v>0.1887347149530913</v>
+        <v>0.4968128933903963</v>
       </c>
       <c r="J26">
-        <v>0.2295953667437556</v>
+        <v>0.5541709194868881</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>0.9987527356206666</v>
+        <v>16.83090500105</v>
       </c>
       <c r="R26">
-        <v>5.992516413724</v>
+        <v>100.9854300063</v>
       </c>
       <c r="S26">
-        <v>0.0007502871771205996</v>
+        <v>0.009175449817708082</v>
       </c>
       <c r="T26">
-        <v>0.0006215278679934857</v>
+        <v>0.006995281192412839</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4946656666666667</v>
+        <v>1.553183333333333</v>
       </c>
       <c r="H27">
-        <v>1.483997</v>
+        <v>4.65955</v>
       </c>
       <c r="I27">
-        <v>0.1887347149530913</v>
+        <v>0.4968128933903963</v>
       </c>
       <c r="J27">
-        <v>0.2295953667437556</v>
+        <v>0.5541709194868881</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>69.10222961629444</v>
+        <v>216.9716609997222</v>
       </c>
       <c r="R27">
-        <v>621.9200665466499</v>
+        <v>1952.7449489975</v>
       </c>
       <c r="S27">
-        <v>0.05191126386185011</v>
+        <v>0.1182831575155063</v>
       </c>
       <c r="T27">
-        <v>0.0645038955818051</v>
+        <v>0.1352670381702508</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4946656666666667</v>
+        <v>1.553183333333333</v>
       </c>
       <c r="H28">
-        <v>1.483997</v>
+        <v>4.65955</v>
       </c>
       <c r="I28">
-        <v>0.1887347149530913</v>
+        <v>0.4968128933903963</v>
       </c>
       <c r="J28">
-        <v>0.2295953667437556</v>
+        <v>0.5541709194868881</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>92.18334792559078</v>
+        <v>233.1652488013333</v>
       </c>
       <c r="R28">
-        <v>829.6501313303171</v>
+        <v>2098.487239212</v>
       </c>
       <c r="S28">
-        <v>0.06925035739665454</v>
+        <v>0.1271111707585888</v>
       </c>
       <c r="T28">
-        <v>0.08604910553524885</v>
+        <v>0.145362636135354</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4946656666666667</v>
+        <v>1.553183333333333</v>
       </c>
       <c r="H29">
-        <v>1.483997</v>
+        <v>4.65955</v>
       </c>
       <c r="I29">
-        <v>0.1887347149530913</v>
+        <v>0.4968128933903963</v>
       </c>
       <c r="J29">
-        <v>0.2295953667437556</v>
+        <v>0.5541709194868881</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>14.82182788934217</v>
+        <v>50.43065600988334</v>
       </c>
       <c r="R29">
-        <v>88.930967336053</v>
+        <v>302.5839360593</v>
       </c>
       <c r="S29">
-        <v>0.01113451509091596</v>
+        <v>0.02749251769075494</v>
       </c>
       <c r="T29">
-        <v>0.009223683459654696</v>
+        <v>0.02096005054303202</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4946656666666667</v>
+        <v>1.553183333333333</v>
       </c>
       <c r="H30">
-        <v>1.483997</v>
+        <v>4.65955</v>
       </c>
       <c r="I30">
-        <v>0.1887347149530913</v>
+        <v>0.4968128933903963</v>
       </c>
       <c r="J30">
-        <v>0.2295953667437556</v>
+        <v>0.5541709194868881</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>3.093498264506889</v>
+        <v>80.9056931150611</v>
       </c>
       <c r="R30">
-        <v>27.841484380562</v>
+        <v>728.1512380355499</v>
       </c>
       <c r="S30">
-        <v>0.00232391061123049</v>
+        <v>0.04410613256374639</v>
       </c>
       <c r="T30">
-        <v>0.002887644727880027</v>
+        <v>0.05043918375496782</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4946656666666667</v>
+        <v>1.553183333333333</v>
       </c>
       <c r="H31">
-        <v>1.483997</v>
+        <v>4.65955</v>
       </c>
       <c r="I31">
-        <v>0.1887347149530913</v>
+        <v>0.4968128933903963</v>
       </c>
       <c r="J31">
-        <v>0.2295953667437556</v>
+        <v>0.5541709194868881</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>71.03656166502289</v>
+        <v>313.0201611008889</v>
       </c>
       <c r="R31">
-        <v>639.3290549852061</v>
+        <v>2817.181449908</v>
       </c>
       <c r="S31">
-        <v>0.05336438081531955</v>
+        <v>0.1706444650440917</v>
       </c>
       <c r="T31">
-        <v>0.06630950957117338</v>
+        <v>0.1951467296908706</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.3068913333333333</v>
+        <v>0.223249</v>
       </c>
       <c r="H32">
-        <v>0.920674</v>
+        <v>0.669747</v>
       </c>
       <c r="I32">
-        <v>0.117091304736278</v>
+        <v>0.0714101028875187</v>
       </c>
       <c r="J32">
-        <v>0.1424413153675111</v>
+        <v>0.07965453977606954</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>0.6196277190013333</v>
+        <v>2.419213900857</v>
       </c>
       <c r="R32">
-        <v>3.717766314008</v>
+        <v>14.515283405142</v>
       </c>
       <c r="S32">
-        <v>0.000465479307915266</v>
+        <v>0.001318846238169037</v>
       </c>
       <c r="T32">
-        <v>0.000385596836339315</v>
+        <v>0.001005476621728476</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.3068913333333333</v>
+        <v>0.223249</v>
       </c>
       <c r="H33">
-        <v>0.920674</v>
+        <v>0.669747</v>
       </c>
       <c r="I33">
-        <v>0.117091304736278</v>
+        <v>0.0714101028875187</v>
       </c>
       <c r="J33">
-        <v>0.1424413153675111</v>
+        <v>0.07965453977606954</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>42.87112854658888</v>
+        <v>31.18672812601666</v>
       </c>
       <c r="R33">
-        <v>385.8401569192999</v>
+        <v>280.6805531341499</v>
       </c>
       <c r="S33">
-        <v>0.03220582719826589</v>
+        <v>0.01700159669850905</v>
       </c>
       <c r="T33">
-        <v>0.04001831510500548</v>
+        <v>0.01944279877099956</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.3068913333333333</v>
+        <v>0.223249</v>
       </c>
       <c r="H34">
-        <v>0.920674</v>
+        <v>0.669747</v>
       </c>
       <c r="I34">
-        <v>0.117091304736278</v>
+        <v>0.0714101028875187</v>
       </c>
       <c r="J34">
-        <v>0.1424413153675111</v>
+        <v>0.07965453977606954</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>57.19068951490156</v>
+        <v>33.51433633912</v>
       </c>
       <c r="R34">
-        <v>514.716205634114</v>
+        <v>301.62902705208</v>
       </c>
       <c r="S34">
-        <v>0.04296302724722997</v>
+        <v>0.01827050364993456</v>
       </c>
       <c r="T34">
-        <v>0.05338499618904869</v>
+        <v>0.02089390380267299</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.3068913333333333</v>
+        <v>0.223249</v>
       </c>
       <c r="H35">
-        <v>0.920674</v>
+        <v>0.669747</v>
       </c>
       <c r="I35">
-        <v>0.117091304736278</v>
+        <v>0.0714101028875187</v>
       </c>
       <c r="J35">
-        <v>0.1424413153675111</v>
+        <v>0.07965453977606954</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>9.195484606904333</v>
+        <v>7.248721565527</v>
       </c>
       <c r="R35">
-        <v>55.172907641426</v>
+        <v>43.492329393162</v>
       </c>
       <c r="S35">
-        <v>0.006907870128318291</v>
+        <v>0.00395167585836187</v>
       </c>
       <c r="T35">
-        <v>0.005722387272706163</v>
+        <v>0.003012722466985881</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.3068913333333333</v>
+        <v>0.223249</v>
       </c>
       <c r="H36">
-        <v>0.920674</v>
+        <v>0.669747</v>
       </c>
       <c r="I36">
-        <v>0.117091304736278</v>
+        <v>0.0714101028875187</v>
       </c>
       <c r="J36">
-        <v>0.1424413153675111</v>
+        <v>0.07965453977606954</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>1.919211036933778</v>
+        <v>11.62909406417633</v>
       </c>
       <c r="R36">
-        <v>17.272899332404</v>
+        <v>104.661846577587</v>
       </c>
       <c r="S36">
-        <v>0.001441757684202879</v>
+        <v>0.006339657255780376</v>
       </c>
       <c r="T36">
-        <v>0.001791499189146754</v>
+        <v>0.007249947313010575</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.3068913333333333</v>
+        <v>0.223249</v>
       </c>
       <c r="H37">
-        <v>0.920674</v>
+        <v>0.669747</v>
       </c>
       <c r="I37">
-        <v>0.117091304736278</v>
+        <v>0.0714101028875187</v>
       </c>
       <c r="J37">
-        <v>0.1424413153675111</v>
+        <v>0.07965453977606954</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>44.07119109700578</v>
+        <v>44.99239493874666</v>
       </c>
       <c r="R37">
-        <v>396.640719873052</v>
+        <v>404.93155444872</v>
       </c>
       <c r="S37">
-        <v>0.0331073431703457</v>
+        <v>0.02452782318676381</v>
       </c>
       <c r="T37">
-        <v>0.04113852077526469</v>
+        <v>0.02804969080067206</v>
       </c>
     </row>
   </sheetData>
